--- a/authenticityData.xlsx
+++ b/authenticityData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei.kirilenko\Dropbox (UFL)\txt\MyPublications\2024\DataMining\Chapter11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6FC44F-1420-447C-B0DF-41837ABB6EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CFBBD6-B549-4BAC-9F4E-BDA4D8396720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24264" yWindow="144" windowWidth="21600" windowHeight="11208" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26850" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USA" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="199">
   <si>
-    <t>When you communicate with providers of hospitality services, example hotel restaurant staff. Is the manner in which they talk. Apart from being outright rude and unhelpful, important to you? And why?</t>
-  </si>
-  <si>
     <t>Can you think of an incident when a service provider communicates with you that seems very unnatural or forced?</t>
   </si>
   <si>
@@ -668,6 +665,9 @@
 I think in a family-owned restaurant, there are probably more returning customers, and they'll remember them. So there's like this bonds there and maybe even friendship than in a chain restaurant. It may happen too, but it's not like I don't think it's the case that often.
 What makes people go often to family-owned restaurants as compared to chain restaurants is like them knowing names and act as if they are your friends and not being strict. Also, I feel like in chain restaurants there are more employees that are just there to make money like maybe extras or whatever. And a family-owned restaurant, it's like more passion behind it. So that also probably transfers to their communication. A family-owned restaurant feels like something authentic, and I really appreciate that.
 Also, I don't mind going to a budget hotel just because I don't spend my whole time in the room anyway. I'm exploring the city, so for me, a budget hotel does the job, and I can spend the money at nice restaurants or sightseeing or stuff like that. </t>
+  </si>
+  <si>
+    <t>when you communicate with providers of hospitality services, is the way they talk important to you? Apart from being outright rude and unhelpful. And why?</t>
   </si>
 </sst>
 </file>
@@ -1059,22 +1059,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,14 +1082,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,17 +1097,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,17 +1115,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1133,17 +1133,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,17 +1151,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,19 +1169,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,19 +1189,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1209,19 +1209,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,19 +1229,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,19 +1249,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,19 +1269,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,19 +1289,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,19 +1309,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,17 +1329,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,13 +1347,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
@@ -1363,19 +1363,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,19 +1383,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,19 +1403,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,19 +1423,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,17 +1443,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1483,22 +1483,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,19 +1506,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>103</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,19 +1526,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>108</v>
-      </c>
-      <c r="F3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,19 +1546,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>111</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>112</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>113</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,19 +1566,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
         <v>115</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>116</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>117</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>118</v>
-      </c>
-      <c r="F5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,19 +1586,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
         <v>120</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>122</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>123</v>
-      </c>
-      <c r="F6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,19 +1606,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>126</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>127</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>128</v>
-      </c>
-      <c r="F7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,19 +1626,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
         <v>130</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>131</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>132</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>133</v>
-      </c>
-      <c r="F8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,19 +1646,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>136</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>137</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>138</v>
-      </c>
-      <c r="F9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,19 +1666,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
         <v>140</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>141</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>142</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>143</v>
-      </c>
-      <c r="F10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,19 +1686,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
         <v>145</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>146</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>147</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>148</v>
-      </c>
-      <c r="F11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,19 +1706,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
         <v>150</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>151</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>152</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>153</v>
-      </c>
-      <c r="F12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,19 +1726,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
         <v>155</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>156</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>157</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>158</v>
-      </c>
-      <c r="F13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,19 +1746,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" t="s">
         <v>160</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>161</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>162</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>163</v>
-      </c>
-      <c r="F14" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,19 +1766,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
         <v>165</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>166</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>167</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>168</v>
-      </c>
-      <c r="F15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,19 +1786,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
         <v>170</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>171</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>172</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>173</v>
-      </c>
-      <c r="F16" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,16 +1806,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
         <v>175</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>176</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>177</v>
-      </c>
-      <c r="F17" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,19 +1823,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
         <v>179</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>180</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>181</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>182</v>
-      </c>
-      <c r="F18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,19 +1843,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
         <v>184</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>185</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>186</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>187</v>
-      </c>
-      <c r="F19" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1863,19 +1863,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" t="s">
         <v>189</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>190</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>191</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>192</v>
-      </c>
-      <c r="F20" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,19 +1883,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" t="s">
         <v>194</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>195</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>196</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>197</v>
-      </c>
-      <c r="F21" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +1908,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,50 +1919,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/authenticityData.xlsx
+++ b/authenticityData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei.kirilenko\Dropbox (UFL)\txt\MyPublications\2024\DataMining\Chapter11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CFBBD6-B549-4BAC-9F4E-BDA4D8396720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD8236B-711D-4C5D-AD4B-D507AB7AB92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USA" sheetId="1" r:id="rId1"/>
@@ -269,9 +269,6 @@
     <t>Just the availability of people. It seems like in lower-budget hotels, if you need something, there's usually only the front desk person, and so they're unable to help you with stuff. And they're usually like, short in their communication, whereas the more luxury they have more available staff sort of seems like they can take a minute to pay attention to you and your needs and communicate with you. You know, without being just abrupt and rude or while you're off.</t>
   </si>
   <si>
-    <t>I say yeah. Because I think how they talk is like it decides the quality of service. You know. If they're kind, I would be like, “Oh, it's very nice here”. But it's they're being rude, I feel like “Oh so low quality here”. My costs fell or something. But you know, if you go to like, like five-star or four-star hotels they're always kind you know, always been nice.</t>
-  </si>
-  <si>
     <t>Authentic communication, I would say when the servers don't memorize all the things and then just like saying, some staff they always reading or something, if they don't do that, and then try to communicate with the customers and try to conversate truly, I would say authentic communications. And being sincere, yeah. Being sincere is important to me. I think so.</t>
   </si>
   <si>
@@ -668,6 +665,9 @@
   </si>
   <si>
     <t>when you communicate with providers of hospitality services, is the way they talk important to you? Apart from being outright rude and unhelpful. And why?</t>
+  </si>
+  <si>
+    <t>I say yeah. Because I thnik how they talk is like it decides the quality of service. You know. If they're kind, I would be like, “Oh, it's very nice here”. But it's they're being rude, I feel like “Oh so low quality here”. My costs fell or something. But you know, if you go to like, like five-star or four-star hotels they're always kind you know, always been nice.</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,14 +1082,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,17 +1097,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,17 +1115,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1133,17 +1133,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,17 +1151,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,19 +1506,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,19 +1526,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>107</v>
-      </c>
-      <c r="F3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,19 +1546,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>110</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>111</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>112</v>
-      </c>
-      <c r="F4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,19 +1566,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
         <v>114</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>115</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>116</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>117</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,19 +1586,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>120</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>121</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>122</v>
-      </c>
-      <c r="F6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,19 +1606,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
         <v>124</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>125</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>126</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>127</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,19 +1626,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
         <v>129</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>130</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>131</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,19 +1646,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
         <v>134</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>135</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>136</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>137</v>
-      </c>
-      <c r="F9" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,19 +1666,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
         <v>139</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>140</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>141</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>142</v>
-      </c>
-      <c r="F10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,19 +1686,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
         <v>144</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>145</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>146</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>147</v>
-      </c>
-      <c r="F11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,19 +1706,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
         <v>149</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>150</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>151</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>152</v>
-      </c>
-      <c r="F12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,19 +1726,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
         <v>154</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>155</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>156</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>157</v>
-      </c>
-      <c r="F13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,19 +1746,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
         <v>159</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>160</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>161</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>162</v>
-      </c>
-      <c r="F14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,19 +1766,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
         <v>164</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>165</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>166</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>167</v>
-      </c>
-      <c r="F15" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,19 +1786,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
         <v>169</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>170</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>171</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>172</v>
-      </c>
-      <c r="F16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,16 +1806,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" t="s">
         <v>174</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>175</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>176</v>
-      </c>
-      <c r="F17" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,19 +1823,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
         <v>178</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>179</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>180</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>181</v>
-      </c>
-      <c r="F18" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,19 +1843,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
         <v>183</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>184</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>185</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>186</v>
-      </c>
-      <c r="F19" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1863,19 +1863,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" t="s">
         <v>188</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>189</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>190</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>191</v>
-      </c>
-      <c r="F20" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,19 +1883,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
         <v>193</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>194</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>195</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>196</v>
-      </c>
-      <c r="F21" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD6B3B7-2EFA-405B-ADD2-C6B497F07FF7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1930,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
